--- a/data/trans_bre/P3_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P3_R-Estudios-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:P14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -527,6 +527,10 @@
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
     <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -545,15 +549,19 @@
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="inlineStr">
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="I1" s="3" t="n"/>
-      <c r="J1" s="3" t="n"/>
       <c r="K1" s="3" t="n"/>
       <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -580,32 +588,52 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -622,6 +650,10 @@
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
       <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -636,52 +668,72 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-0,57</t>
+          <t>-4,82</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-5,51</t>
+          <t>-4,2</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-7,81</t>
+          <t>-10,23</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-8,29</t>
+          <t>-5,26</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>9,61</t>
+          <t>-2,02</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-1,01%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-8,95%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-12,95%</t>
+          <t>-8,64%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-13,47%</t>
+          <t>-7,21%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>31,28%</t>
+          <t>-16,22%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>-8,62%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>-3,39%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -694,52 +746,72 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-8,5; 9,06</t>
+          <t>-17,78; 12,21</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-16,17; 5,08</t>
+          <t>-17,23; 10,85</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-16,08; 0,47</t>
+          <t>-19,55; 0,94</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-18,29; 2,11</t>
+          <t>-13,91; 4,62</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>1,26; 18,15</t>
+          <t>-16,9; 19,03</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-13,85; 17,94</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-23,55; 9,17</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-25,3; 0,44</t>
+          <t>-28,92; 26,49</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-27,97; 3,61</t>
+          <t>-26,34; 22,5</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>3,39; 69,04</t>
+          <t>-28,71; 1,57</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>-21,18; 8,5</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>-24,9; 41,18</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -756,52 +828,72 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-4,75</t>
+          <t>-3,2</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-2,48</t>
+          <t>-1,22</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-0,06</t>
+          <t>-0,26</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-0,43</t>
+          <t>-0,59</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-3,32</t>
+          <t>-3,96</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-9,12%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-4,9%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-0,13%</t>
+          <t>-6,32%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-0,88%</t>
+          <t>-2,44%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>-10,01%</t>
+          <t>-0,54%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>-1,23%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>-7,57%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -814,52 +906,72 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-10,08; 0,86</t>
+          <t>-11,87; 6,36</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-9,12; 4,38</t>
+          <t>-8,78; 8,0</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-6,12; 6,04</t>
+          <t>-6,54; 6,63</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-6,42; 6,21</t>
+          <t>-6,59; 6,61</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-9,16; 3,04</t>
+          <t>-11,86; 3,97</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-18,38; 1,7</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-16,46; 9,24</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-11,84; 13,57</t>
+          <t>-21,45; 14,1</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-12,24; 14,26</t>
+          <t>-16,45; 18,19</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>-25,38; 10,71</t>
+          <t>-12,67; 15,3</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>-12,79; 15,1</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>-21,03; 8,77</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -876,52 +988,72 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-2,59</t>
+          <t>-7,62</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-2,42</t>
+          <t>-5,1</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-5,97</t>
+          <t>-5,3</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-3,37</t>
+          <t>-3,59</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-9,85</t>
+          <t>-0,33</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-5,63%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-5,5%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-12,87%</t>
+          <t>-16,8%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-7,92%</t>
+          <t>-11,15%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>-26,13%</t>
+          <t>-11,62%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>-8,42%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>-0,82%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -934,59 +1066,79 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-9,15; 4,59</t>
+          <t>-16,79; 1,54</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-10,0; 5,65</t>
+          <t>-14,0; 3,62</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-12,63; 1,2</t>
+          <t>-11,78; 2,13</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-8,91; 3,27</t>
+          <t>-9,4; 2,4</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-18,82; -0,67</t>
+          <t>-8,58; 7,95</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-18,23; 10,98</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-20,59; 14,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-25,25; 2,85</t>
+          <t>-32,89; 3,78</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-19,36; 8,15</t>
+          <t>-27,73; 8,53</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>-43,82; -2,05</t>
+          <t>-23,96; 5,21</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>-20,59; 6,57</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>-19,12; 22,62</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -996,52 +1148,72 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-2,84</t>
+          <t>-1,06</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-2,59</t>
+          <t>0,16</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-3,4</t>
+          <t>2,17</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-2,83</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-0,33</t>
+          <t>-8,49</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-5,55%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-5,11%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-6,78%</t>
+          <t>-2,04%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-5,73%</t>
+          <t>0,33%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>-0,98%</t>
+          <t>4,66%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>-16,56%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1054,64 +1226,252 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-6,48; 1,21</t>
+          <t>-6,07; 4,29</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-6,86; 2,0</t>
+          <t>-6,58; 6,47</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-7,09; 0,64</t>
+          <t>-6,3; 10,05</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-7,23; 1,41</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-4,6; 4,42</t>
+          <t>-16,51; 0,76</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-12,06; 2,55</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-13,08; 4,02</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-13,59; 1,36</t>
+          <t>-11,16; 8,86</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-13,87; 2,63</t>
+          <t>-12,39; 14,35</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>-12,99; 14,34</t>
+          <t>-11,95; 24,2</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>-29,51; 1,46</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>-2,82</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>-1,71</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>-2,47</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>-2,27</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>-3,65</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>-5,52%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>-3,45%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>-5,0%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>-4,63%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>-7,31%</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>-6,8; 0,97</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>-5,92; 2,48</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>-6,25; 1,57</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>-6,3; 1,86</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>-8,69; 0,73</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-12,91; 2,0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>-11,52; 5,36</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>-12,17; 3,36</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>-12,27; 4,05</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>-16,75; 1,53</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
+    <mergeCell ref="J1:P1"/>
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="C1:G1"/>
-    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="C1:I1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
